--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -24,7 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Property1</t>
+  </si>
+  <si>
+    <t>Property2</t>
+  </si>
+  <si>
+    <t>Property3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,25 +396,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>14</v>
-      </c>
-      <c r="C1">
-        <v>-990</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>-990</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -412,42 +422,53 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>45</v>
       </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
       <c r="C4">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>76</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>63</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-89</v>
       </c>
     </row>
